--- a/Baby_documents/ProductBacklog_0925.xlsx
+++ b/Baby_documents/ProductBacklog_0925.xlsx
@@ -16,21 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Importance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial estimate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,12 +91,84 @@
     <t>播放功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个3-5岁的宝宝，可以通过点击主界面四大按钮进入四个不同功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Main界面上布局四个大按钮，使用自主绘制的图片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大的按钮方便宝宝不灵活的手指进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个3-5岁的宝宝，在学动物界面，可以点击“学一学”按钮，认识各种动物的模样以及叫法、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个3-5岁的宝宝，在学动物界面，可以点击“认一认”按钮，进行学习测试，以后测试自己是否记住了各种动物的对应名称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在宝宝学动物界面，有两个按钮：“学一学”和“认一认”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面设计保持简洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个3-5岁的宝宝，在学动物之学一学界面，可以看到左边的动物图片以及对应的右边的动物中英文名，以便同时学习动物名与模样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个3-5岁的宝宝，在在学动物之学一学界面，学完了一种动物可以点击屏幕任何一处，界面会显示下一个要学习的动物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在学动物之学一学界面，设计两个layout分别存放动物图片及动物名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选用卡通动物图片更受宝宝喜爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用图片与动物名对应的数组进行切换，每换一次偏移量加一，继续出现之后的图片及名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个3-5岁的宝宝，在学动物之认一认界面，可以看到左边有16种不同的动物，右边有一种动物的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在学动物之认一认界面，设计四个layout分别存放四组动物图片及一种动物名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选用不同的动物，增加辨识难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个3-5岁的宝宝，在学动物之认一认界面，可以通过点击16种动物的图片来测试自己是否正确地将动物名及动物模样对应了，以便父母了解宝宝学习动物的状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,9 +187,22 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -142,12 +215,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,34 +228,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -557,164 +636,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="56.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="29.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
-        <v>60</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6">
-        <v>30</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="C6" s="1">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
